--- a/protectionCkt/protectionCktBOM.xlsx
+++ b/protectionCkt/protectionCktBOM.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="protectionCkt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -70,9 +70,6 @@
     <t xml:space="preserve">R1 </t>
   </si>
   <si>
-    <t>WSL0603R0510FEA</t>
-  </si>
-  <si>
     <t>myfootprints:WSL0603R0510FEA</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>₹488.4</t>
+  </si>
+  <si>
+    <t>WSL0603R0250FEA</t>
   </si>
 </sst>
 </file>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1045,7 +1045,7 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1068,7 +1068,7 @@
         <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1079,137 +1079,138 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>10</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>43</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>